--- a/S3/S3_L/S3_L_jikken/S3_L_AnalogCircuit2/アナログ回路Ⅱ_1週目/アナログ2_1週目.xlsx
+++ b/S3/S3_L/S3_L_jikken/S3_L_AnalogCircuit2/アナログ回路Ⅱ_1週目/アナログ2_1週目.xlsx
@@ -5,18 +5,19 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="29">
   <si>
     <t>1_0</t>
   </si>
@@ -37,6 +38,12 @@
   </si>
   <si>
     <t>(1)noamp_PS</t>
+  </si>
+  <si>
+    <t>Vd/V</t>
+  </si>
+  <si>
+    <t>Id/mA</t>
   </si>
   <si>
     <t>(2)noamp_FG</t>
@@ -80,6 +87,24 @@
   <si>
     <t>三角形</t>
   </si>
+  <si>
+    <t>原理グラフ</t>
+  </si>
+  <si>
+    <t>レベルシフター</t>
+  </si>
+  <si>
+    <t>ヒステリシスコンパレータ</t>
+  </si>
+  <si>
+    <t>絶対値回路</t>
+  </si>
+  <si>
+    <t>Vr=0Vの時</t>
+  </si>
+  <si>
+    <t>Vr=1Vの時</t>
+  </si>
 </sst>
 </file>
 
@@ -89,7 +114,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -117,17 +142,29 @@
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
+      <name val="IPA Pゴシック"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
       <color rgb="FF595959"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
+      <b val="true"/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -285,7 +322,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -370,23 +407,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -448,8 +469,8 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF595959"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF004586"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -462,7 +483,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart48.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -603,11 +624,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="16924419"/>
-        <c:axId val="42917298"/>
+        <c:axId val="83854149"/>
+        <c:axId val="70873982"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="16924419"/>
+        <c:axId val="83854149"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -633,7 +654,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000">
+                  <a:rPr b="1" sz="1000">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -657,11 +678,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="42917298"/>
+        <c:crossAx val="70873982"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42917298"/>
+        <c:axId val="70873982"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -687,7 +708,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000">
+                  <a:rPr b="1" sz="1000">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -711,7 +732,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="16924419"/>
+        <c:crossAx val="83854149"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -734,7 +755,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart49.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -875,11 +896,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="89953022"/>
-        <c:axId val="86433905"/>
+        <c:axId val="94075779"/>
+        <c:axId val="86308740"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89953022"/>
+        <c:axId val="94075779"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -905,7 +926,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000">
+                  <a:rPr b="1" sz="1000">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -929,11 +950,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="86433905"/>
+        <c:crossAx val="86308740"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="86433905"/>
+        <c:axId val="86308740"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -959,7 +980,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000">
+                  <a:rPr b="1" sz="1000">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -983,7 +1004,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="89953022"/>
+        <c:crossAx val="94075779"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1006,7 +1027,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart50.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1087,11 +1108,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="11371644"/>
-        <c:axId val="46506924"/>
+        <c:axId val="63690060"/>
+        <c:axId val="7683013"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="11371644"/>
+        <c:axId val="63690060"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1117,7 +1138,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000">
+                  <a:rPr b="1" sz="1000">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1141,11 +1162,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="46506924"/>
+        <c:crossAx val="7683013"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="46506924"/>
+        <c:axId val="7683013"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1171,7 +1192,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000">
+                  <a:rPr b="1" sz="1000">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1195,7 +1216,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="11371644"/>
+        <c:crossAx val="63690060"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1218,7 +1239,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart51.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1299,11 +1320,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="27791220"/>
-        <c:axId val="40956564"/>
+        <c:axId val="40647750"/>
+        <c:axId val="66060753"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="27791220"/>
+        <c:axId val="40647750"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1329,7 +1350,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000">
+                  <a:rPr b="1" sz="1000">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1353,11 +1374,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="40956564"/>
+        <c:crossAx val="66060753"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="40956564"/>
+        <c:axId val="66060753"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1383,7 +1404,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000">
+                  <a:rPr b="1" sz="1000">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1407,7 +1428,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="27791220"/>
+        <c:crossAx val="40647750"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1430,7 +1451,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart52.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1607,11 +1628,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="95630172"/>
-        <c:axId val="40168705"/>
+        <c:axId val="57002628"/>
+        <c:axId val="33852797"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95630172"/>
+        <c:axId val="57002628"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1637,7 +1658,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000">
+                  <a:rPr b="1" sz="1000">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1661,11 +1682,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="40168705"/>
+        <c:crossAx val="33852797"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="40168705"/>
+        <c:axId val="33852797"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1691,7 +1712,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000">
+                  <a:rPr b="1" sz="1000">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1715,7 +1736,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="95630172"/>
+        <c:crossAx val="57002628"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1738,7 +1759,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart53.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1915,11 +1936,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="97359460"/>
-        <c:axId val="97896791"/>
+        <c:axId val="46171652"/>
+        <c:axId val="85152989"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="97359460"/>
+        <c:axId val="46171652"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1945,7 +1966,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000">
+                  <a:rPr b="1" sz="1000">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1969,11 +1990,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="97896791"/>
+        <c:crossAx val="85152989"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97896791"/>
+        <c:axId val="85152989"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1999,7 +2020,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000">
+                  <a:rPr b="1" sz="1000">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -2023,7 +2044,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="97359460"/>
+        <c:crossAx val="46171652"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2046,7 +2067,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart54.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2116,11 +2137,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="35483392"/>
-        <c:axId val="3015078"/>
+        <c:axId val="73095057"/>
+        <c:axId val="8435022"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="35483392"/>
+        <c:axId val="73095057"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2146,7 +2167,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000">
+                  <a:rPr b="1" sz="1000">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -2170,11 +2191,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="3015078"/>
+        <c:crossAx val="8435022"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="3015078"/>
+        <c:axId val="8435022"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2200,7 +2221,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000">
+                  <a:rPr b="1" sz="1000">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -2224,7 +2245,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="35483392"/>
+        <c:crossAx val="73095057"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2247,7 +2268,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart55.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2317,11 +2338,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="25957839"/>
-        <c:axId val="56242356"/>
+        <c:axId val="89470420"/>
+        <c:axId val="8094540"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="25957839"/>
+        <c:axId val="89470420"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2347,7 +2368,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000">
+                  <a:rPr b="1" sz="1000">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -2371,11 +2392,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="56242356"/>
+        <c:crossAx val="8094540"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="56242356"/>
+        <c:axId val="8094540"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2401,7 +2422,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000">
+                  <a:rPr b="1" sz="1000">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -2425,7 +2446,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="25957839"/>
+        <c:crossAx val="89470420"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2448,7 +2469,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart56.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2518,11 +2539,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="46286326"/>
-        <c:axId val="52651280"/>
+        <c:axId val="97327062"/>
+        <c:axId val="44263685"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="46286326"/>
+        <c:axId val="97327062"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2548,7 +2569,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000">
+                  <a:rPr b="1" sz="1000">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -2572,11 +2593,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="52651280"/>
+        <c:crossAx val="44263685"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="52651280"/>
+        <c:axId val="44263685"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2602,7 +2623,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000">
+                  <a:rPr b="1" sz="1000">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -2626,7 +2647,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="46286326"/>
+        <c:crossAx val="97327062"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2649,7 +2670,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart57.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2719,11 +2740,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="35376869"/>
-        <c:axId val="35160894"/>
+        <c:axId val="49729137"/>
+        <c:axId val="8933233"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="35376869"/>
+        <c:axId val="49729137"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2749,7 +2770,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000">
+                  <a:rPr b="1" sz="1000">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -2773,11 +2794,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="35160894"/>
+        <c:crossAx val="8933233"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="35160894"/>
+        <c:axId val="8933233"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2803,7 +2824,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000">
+                  <a:rPr b="1" sz="1000">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -2827,7 +2848,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="35376869"/>
+        <c:crossAx val="49729137"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2850,20 +2871,1818 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart58.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$L$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Id/mA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="99ccff"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ee4000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$K$8:$K$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.595</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.586</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.574</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.559</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.538</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.497</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.615</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.277</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.94</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-6.608</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-8.27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-9.933</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$L$8:$L$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.932280355380059</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.769101678183613</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.605824284304047</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44284304047384</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28035538005923</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.120039486673248</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-9.87166831194582E-005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.000296150049358353</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.000394866732477745</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.000691016781836186</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.000789733464955666</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.000987166831194451</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="59679462"/>
+        <c:axId val="31776678"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="59679462"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Vd/V</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="31776678"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="31776678"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Id/mA</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="59679462"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart59.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="99ccff"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ee4000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$M$53:$M$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>-0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.101</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.211</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.506</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.499</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.497</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.499</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-4.004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$N$53:$N$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.395557749259625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.345508390918065</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2964461994077</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.246989141164857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.197729516288253</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.148469891411649</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0990128331688055</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.049457058242843</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.000789733464955577</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.000888450148075023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.000197433366238873</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.000197433366238873</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.000394866732477789</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.000197433366238916</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.000296150049358309</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-9.87166831194801E-005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="23652952"/>
+        <c:axId val="75211639"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="23652952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Vd/V</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="75211639"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="75211639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Id/mA</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="23652952"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart60.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$5:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vo/V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="99ccff"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ee4000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$6:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$6:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8.33333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.33333333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.33333333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="443569"/>
+        <c:axId val="47000203"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="443569"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Vi/V</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="47000203"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="47000203"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Vo/V</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="443569"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart61.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$24:$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vo/V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="99ccff"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ee4000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$25:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$25:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="15382334"/>
+        <c:axId val="63229650"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="15382334"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>vi/V</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="63229650"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="63229650"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>vo/V</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="15382334"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart62.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$49:$B$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vo/V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ee4000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$50:$A$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$50:$B$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="35419904"/>
+        <c:axId val="76346225"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="35419904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Vi/V</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="76346225"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="76346225"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Vo/V</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="35419904"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart63.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$76:$B$76</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vo/V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ee4000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$77:$A$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$77:$B$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="5735557"/>
+        <c:axId val="45876868"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="5735557"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Vi/V</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="45876868"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="45876868"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Vo/V</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="5735557"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart64.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$89:$B$89</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vo/V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ee4000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$90:$A$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$90:$B$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="59289087"/>
+        <c:axId val="16995181"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="59289087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Vi/V</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="16995181"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="16995181"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Vo/V</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="59289087"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>103320</xdr:colOff>
+      <xdr:colOff>157320</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>106200</xdr:rowOff>
+      <xdr:rowOff>88200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>531720</xdr:colOff>
+      <xdr:colOff>585000</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>120600</xdr:rowOff>
+      <xdr:rowOff>101880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2871,8 +4690,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2391120" y="452880"/>
-        <a:ext cx="4241520" cy="2414520"/>
+        <a:off x="2406960" y="434880"/>
+        <a:ext cx="4177440" cy="2413800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2890,15 +4709,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>417600</xdr:colOff>
+      <xdr:colOff>471600</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>6480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>36360</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:colOff>89640</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>143280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2906,8 +4725,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1942560" y="1053000"/>
-        <a:ext cx="4194720" cy="2061720"/>
+        <a:off x="1971360" y="1063440"/>
+        <a:ext cx="4117680" cy="2061000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2920,15 +4739,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>336960</xdr:colOff>
+      <xdr:colOff>390960</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>104760</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>604440</xdr:colOff>
+      <xdr:colOff>657720</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>162360</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2936,8 +4755,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1099440" y="5267160"/>
-        <a:ext cx="2555280" cy="2143440"/>
+        <a:off x="1140840" y="5353920"/>
+        <a:ext cx="2516400" cy="2161800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2950,15 +4769,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>237600</xdr:colOff>
+      <xdr:colOff>291600</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>76320</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>524880</xdr:colOff>
+      <xdr:colOff>578160</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>123840</xdr:rowOff>
+      <xdr:rowOff>55800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2966,8 +4785,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5576040" y="5410080"/>
-        <a:ext cx="2575080" cy="1790640"/>
+        <a:off x="5541120" y="5496840"/>
+        <a:ext cx="2536200" cy="1799640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2979,16 +4798,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>560520</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>197640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>138960</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>152640</xdr:rowOff>
+      <xdr:rowOff>65160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2996,8 +4815,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1323000" y="8672760"/>
-        <a:ext cx="2993040" cy="2328840"/>
+        <a:off x="2447280" y="8877600"/>
+        <a:ext cx="2941200" cy="2327760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3009,16 +4828,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>55440</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>10080</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>203040</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>111960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>369360</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>516600</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>124200</xdr:rowOff>
+      <xdr:rowOff>2520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3026,8 +4845,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4631040" y="8629920"/>
-        <a:ext cx="2601720" cy="2343240"/>
+        <a:off x="5452560" y="8800560"/>
+        <a:ext cx="2563200" cy="2342160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3040,15 +4859,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>365040</xdr:colOff>
+      <xdr:colOff>419040</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>157680</xdr:rowOff>
+      <xdr:rowOff>17640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>702720</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>123840</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6120</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>164160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3056,8 +4875,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2652840" y="13082760"/>
-        <a:ext cx="1863000" cy="1176120"/>
+        <a:off x="2668680" y="13284000"/>
+        <a:ext cx="1836720" cy="1184760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3070,15 +4889,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>317520</xdr:colOff>
+      <xdr:colOff>371520</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>167400</xdr:rowOff>
+      <xdr:rowOff>27360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>131400</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:colOff>184680</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>135720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3086,8 +4905,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4893120" y="13092480"/>
-        <a:ext cx="2101680" cy="1137960"/>
+        <a:off x="4870800" y="13293720"/>
+        <a:ext cx="2063160" cy="1146600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3100,15 +4919,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>460440</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:colOff>514440</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>65520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>198000</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
+      <xdr:colOff>251280</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3116,8 +4935,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3510720" y="14521320"/>
-        <a:ext cx="2025720" cy="1271160"/>
+        <a:off x="3513960" y="14731920"/>
+        <a:ext cx="1986840" cy="1280160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3130,15 +4949,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>450720</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>5400</xdr:rowOff>
+      <xdr:colOff>504720</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>46440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>416880</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
+      <xdr:colOff>470160</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3146,12 +4965,227 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5789160" y="14502240"/>
-        <a:ext cx="2253960" cy="1290240"/>
+        <a:off x="5754240" y="14712840"/>
+        <a:ext cx="2215080" cy="1299240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>454320</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>16920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>339120</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="9453240" y="2472120"/>
+        <a:ext cx="3634560" cy="2081880"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>412560</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>60120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>516600</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>18360</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="10911600" y="9447840"/>
+        <a:ext cx="3853440" cy="2412000"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>58680</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>235440</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="1684080" y="678960"/>
+        <a:ext cx="4240800" cy="2493720"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>58680</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>20520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>370800</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>60120</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="1684080" y="3942720"/>
+        <a:ext cx="4376160" cy="3007080"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>58680</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>11880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>766800</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>127080</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="1684080" y="8267400"/>
+        <a:ext cx="5585040" cy="3240000"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>31320</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>19440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>167040</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>110880</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="1656720" y="12378960"/>
+        <a:ext cx="4199760" cy="2007000"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>52200</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>148680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>31320</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>164160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="1677600" y="14599080"/>
+        <a:ext cx="4043160" cy="1895040"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3173,7 +5207,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57201646090535"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3315,15 +5349,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G65536"/>
+  <dimension ref="A1:N65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M90" activeCellId="0" sqref="M90"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P73" activeCellId="0" sqref="P73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57201646090535"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3349,136 +5383,246 @@
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
         <v>-10.039</v>
       </c>
       <c r="B8" s="6" t="n">
         <v>-0.595</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K8" s="0" t="n">
+        <f aca="false">-B8</f>
+        <v>0.595</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <f aca="false">(B8-A8)/10.13</f>
+        <v>0.932280355380059</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
         <v>-8.377</v>
       </c>
       <c r="B9" s="6" t="n">
         <v>-0.586</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K9" s="0" t="n">
+        <f aca="false">-B9</f>
+        <v>0.586</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <f aca="false">(B9-A9)/10.13</f>
+        <v>0.769101678183613</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
         <v>-6.711</v>
       </c>
       <c r="B10" s="6" t="n">
         <v>-0.574</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K10" s="0" t="n">
+        <f aca="false">-B10</f>
+        <v>0.574</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <f aca="false">(B10-A10)/10.13</f>
+        <v>0.605824284304047</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
         <v>-5.045</v>
       </c>
       <c r="B11" s="6" t="n">
         <v>-0.559</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K11" s="0" t="n">
+        <f aca="false">-B11</f>
+        <v>0.559</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <f aca="false">(B11-A11)/10.13</f>
+        <v>0.44284304047384</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
         <v>-3.378</v>
       </c>
       <c r="B12" s="6" t="n">
         <v>-0.538</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K12" s="0" t="n">
+        <f aca="false">-B12</f>
+        <v>0.538</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <f aca="false">(B12-A12)/10.13</f>
+        <v>0.28035538005923</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="n">
         <v>-1.713</v>
       </c>
       <c r="B13" s="6" t="n">
         <v>-0.497</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K13" s="0" t="n">
+        <f aca="false">-B13</f>
+        <v>0.497</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <f aca="false">(B13-A13)/10.13</f>
+        <v>0.120039486673248</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="n">
         <v>-0.048</v>
       </c>
       <c r="B14" s="6" t="n">
         <v>-0.048</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K14" s="0" t="n">
+        <f aca="false">-B14</f>
+        <v>0.048</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <f aca="false">(B14-A14)/10.13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="n">
         <v>1.616</v>
       </c>
       <c r="B15" s="6" t="n">
         <v>1.615</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K15" s="0" t="n">
+        <f aca="false">-B15</f>
+        <v>-1.615</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <f aca="false">(B15-A15)/10.13</f>
+        <v>-9.87166831194582E-005</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="n">
         <v>3.28</v>
       </c>
       <c r="B16" s="6" t="n">
         <v>3.277</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K16" s="0" t="n">
+        <f aca="false">-B16</f>
+        <v>-3.277</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <f aca="false">(B16-A16)/10.13</f>
+        <v>-0.000296150049358353</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
         <v>4.944</v>
       </c>
       <c r="B17" s="6" t="n">
         <v>4.94</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K17" s="0" t="n">
+        <f aca="false">-B17</f>
+        <v>-4.94</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <f aca="false">(B17-A17)/10.13</f>
+        <v>-0.000394866732477745</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="n">
         <v>6.615</v>
       </c>
       <c r="B18" s="6" t="n">
         <v>6.608</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K18" s="0" t="n">
+        <f aca="false">-B18</f>
+        <v>-6.608</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <f aca="false">(B18-A18)/10.13</f>
+        <v>-0.000691016781836186</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="n">
         <v>8.278</v>
       </c>
       <c r="B19" s="6" t="n">
         <v>8.27</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K19" s="0" t="n">
+        <f aca="false">-B19</f>
+        <v>-8.27</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <f aca="false">(B19-A19)/10.13</f>
+        <v>-0.000789733464955666</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="n">
         <v>9.943</v>
       </c>
       <c r="B20" s="8" t="n">
         <v>9.933</v>
       </c>
+      <c r="K20" s="0" t="n">
+        <f aca="false">-B20</f>
+        <v>-9.933</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <f aca="false">(B20-A20)/10.13</f>
+        <v>-0.000987166831194451</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3497,19 +5641,19 @@
     </row>
     <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="F33" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>11</v>
-      </c>
       <c r="G33" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3565,31 +5709,31 @@
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="B40" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B41" s="22" t="n">
+      <c r="B41" s="19" t="n">
         <v>4.12</v>
       </c>
-      <c r="C41" s="22" t="n">
+      <c r="C41" s="19" t="n">
         <v>0</v>
       </c>
       <c r="D41" s="8" t="n">
@@ -3598,245 +5742,403 @@
     </row>
     <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="17" t="s">
         <v>3</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+      <c r="M52" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N52" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="n">
         <v>-4.007</v>
       </c>
-      <c r="B53" s="23" t="n">
+      <c r="B53" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C53" s="6" t="n">
         <v>0.555</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M53" s="0" t="n">
+        <f aca="false">-B53</f>
+        <v>-0</v>
+      </c>
+      <c r="N53" s="0" t="n">
+        <f aca="false">(B53-A53)/10.13</f>
+        <v>0.395557749259625</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="n">
         <v>-3.5</v>
       </c>
-      <c r="B54" s="23" t="n">
+      <c r="B54" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C54" s="6" t="n">
         <v>0.548</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M54" s="0" t="n">
+        <f aca="false">-B54</f>
+        <v>-0</v>
+      </c>
+      <c r="N54" s="0" t="n">
+        <f aca="false">(B54-A54)/10.13</f>
+        <v>0.345508390918065</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="n">
         <v>-3.003</v>
       </c>
-      <c r="B55" s="23" t="n">
+      <c r="B55" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C55" s="6" t="n">
         <v>0.541</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M55" s="0" t="n">
+        <f aca="false">-B55</f>
+        <v>-0</v>
+      </c>
+      <c r="N55" s="0" t="n">
+        <f aca="false">(B55-A55)/10.13</f>
+        <v>0.2964461994077</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="n">
         <v>-2.502</v>
       </c>
-      <c r="B56" s="23" t="n">
+      <c r="B56" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C56" s="6" t="n">
         <v>0.533</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M56" s="0" t="n">
+        <f aca="false">-B56</f>
+        <v>-0</v>
+      </c>
+      <c r="N56" s="0" t="n">
+        <f aca="false">(B56-A56)/10.13</f>
+        <v>0.246989141164857</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="n">
         <v>-2.003</v>
       </c>
-      <c r="B57" s="23" t="n">
+      <c r="B57" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C57" s="6" t="n">
         <v>0.522</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M57" s="0" t="n">
+        <f aca="false">-B57</f>
+        <v>-0</v>
+      </c>
+      <c r="N57" s="0" t="n">
+        <f aca="false">(B57-A57)/10.13</f>
+        <v>0.197729516288253</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="n">
         <v>-1.504</v>
       </c>
-      <c r="B58" s="23" t="n">
+      <c r="B58" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C58" s="6" t="n">
         <v>0.509</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M58" s="0" t="n">
+        <f aca="false">-B58</f>
+        <v>-0</v>
+      </c>
+      <c r="N58" s="0" t="n">
+        <f aca="false">(B58-A58)/10.13</f>
+        <v>0.148469891411649</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="n">
         <v>-1.003</v>
       </c>
-      <c r="B59" s="23" t="n">
+      <c r="B59" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C59" s="6" t="n">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M59" s="0" t="n">
+        <f aca="false">-B59</f>
+        <v>-0</v>
+      </c>
+      <c r="N59" s="0" t="n">
+        <f aca="false">(B59-A59)/10.13</f>
+        <v>0.0990128331688055</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="n">
         <v>-0.501</v>
       </c>
-      <c r="B60" s="23" t="n">
+      <c r="B60" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C60" s="6" t="n">
         <v>0.456</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M60" s="0" t="n">
+        <f aca="false">-B60</f>
+        <v>-0</v>
+      </c>
+      <c r="N60" s="0" t="n">
+        <f aca="false">(B60-A60)/10.13</f>
+        <v>0.049457058242843</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="n">
         <v>0.008</v>
       </c>
-      <c r="B61" s="23" t="n">
+      <c r="B61" s="18" t="n">
         <v>0</v>
       </c>
       <c r="C61" s="6" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M61" s="0" t="n">
+        <f aca="false">-B61</f>
+        <v>-0</v>
+      </c>
+      <c r="N61" s="0" t="n">
+        <f aca="false">(B61-A61)/10.13</f>
+        <v>-0.000789733464955577</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="n">
         <v>0.101</v>
       </c>
-      <c r="B62" s="23" t="n">
+      <c r="B62" s="18" t="n">
         <v>0.101</v>
       </c>
       <c r="C62" s="6" t="n">
         <v>-13.596</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M62" s="0" t="n">
+        <f aca="false">-B62</f>
+        <v>-0.101</v>
+      </c>
+      <c r="N62" s="0" t="n">
+        <f aca="false">(B62-A62)/10.13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="n">
         <v>0.202</v>
       </c>
-      <c r="B63" s="23" t="n">
+      <c r="B63" s="18" t="n">
         <v>0.211</v>
       </c>
       <c r="C63" s="6" t="n">
         <v>-13.629</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M63" s="0" t="n">
+        <f aca="false">-B63</f>
+        <v>-0.211</v>
+      </c>
+      <c r="N63" s="0" t="n">
+        <f aca="false">(B63-A63)/10.13</f>
+        <v>0.000888450148075023</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="n">
         <v>0.506</v>
       </c>
-      <c r="B64" s="23" t="n">
+      <c r="B64" s="18" t="n">
         <v>0.506</v>
       </c>
       <c r="C64" s="6" t="n">
         <v>-13.671</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M64" s="0" t="n">
+        <f aca="false">-B64</f>
+        <v>-0.506</v>
+      </c>
+      <c r="N64" s="0" t="n">
+        <f aca="false">(B64-A64)/10.13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B65" s="23" t="n">
+      <c r="B65" s="18" t="n">
         <v>1</v>
       </c>
       <c r="C65" s="6" t="n">
         <v>-13.702</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M65" s="0" t="n">
+        <f aca="false">-B65</f>
+        <v>-1</v>
+      </c>
+      <c r="N65" s="0" t="n">
+        <f aca="false">(B65-A65)/10.13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="n">
         <v>1.501</v>
       </c>
-      <c r="B66" s="23" t="n">
+      <c r="B66" s="18" t="n">
         <v>1.499</v>
       </c>
       <c r="C66" s="6" t="n">
         <v>-13.691</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M66" s="0" t="n">
+        <f aca="false">-B66</f>
+        <v>-1.499</v>
+      </c>
+      <c r="N66" s="0" t="n">
+        <f aca="false">(B66-A66)/10.13</f>
+        <v>-0.000197433366238873</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="n">
         <v>2.001</v>
       </c>
-      <c r="B67" s="23" t="n">
+      <c r="B67" s="18" t="n">
         <v>1.999</v>
       </c>
       <c r="C67" s="6" t="n">
         <v>-13.692</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M67" s="0" t="n">
+        <f aca="false">-B67</f>
+        <v>-1.999</v>
+      </c>
+      <c r="N67" s="0" t="n">
+        <f aca="false">(B67-A67)/10.13</f>
+        <v>-0.000197433366238873</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="n">
         <v>2.501</v>
       </c>
-      <c r="B68" s="23" t="n">
+      <c r="B68" s="18" t="n">
         <v>2.497</v>
       </c>
       <c r="C68" s="6" t="n">
         <v>-13.692</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M68" s="0" t="n">
+        <f aca="false">-B68</f>
+        <v>-2.497</v>
+      </c>
+      <c r="N68" s="0" t="n">
+        <f aca="false">(B68-A68)/10.13</f>
+        <v>-0.000394866732477789</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="n">
         <v>2.999</v>
       </c>
-      <c r="B69" s="23" t="n">
+      <c r="B69" s="18" t="n">
         <v>2.997</v>
       </c>
       <c r="C69" s="6" t="n">
         <v>-13.692</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M69" s="0" t="n">
+        <f aca="false">-B69</f>
+        <v>-2.997</v>
+      </c>
+      <c r="N69" s="0" t="n">
+        <f aca="false">(B69-A69)/10.13</f>
+        <v>-0.000197433366238916</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="n">
         <v>3.502</v>
       </c>
-      <c r="B70" s="23" t="n">
+      <c r="B70" s="18" t="n">
         <v>3.499</v>
       </c>
       <c r="C70" s="6" t="n">
         <v>-13.693</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M70" s="0" t="n">
+        <f aca="false">-B70</f>
+        <v>-3.499</v>
+      </c>
+      <c r="N70" s="0" t="n">
+        <f aca="false">(B70-A70)/10.13</f>
+        <v>-0.000296150049358309</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="7" t="n">
         <v>4.005</v>
       </c>
-      <c r="B71" s="22" t="n">
+      <c r="B71" s="19" t="n">
         <v>4.004</v>
       </c>
       <c r="C71" s="8" t="n">
         <v>-13.692</v>
       </c>
+      <c r="M71" s="0" t="n">
+        <f aca="false">-B71</f>
+        <v>-4.004</v>
+      </c>
+      <c r="N71" s="0" t="n">
+        <f aca="false">(B71-A71)/10.13</f>
+        <v>-9.87166831194801E-005</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3848,33 +6150,33 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B78" s="23" t="s">
+      <c r="A78" s="21" t="s">
         <v>13</v>
       </c>
+      <c r="B78" s="18" t="s">
+        <v>15</v>
+      </c>
       <c r="C78" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="n">
         <v>2.04</v>
       </c>
-      <c r="B79" s="23" t="n">
+      <c r="B79" s="18" t="n">
         <v>1.06</v>
       </c>
       <c r="C79" s="6" t="n">
         <v>14.8</v>
       </c>
-      <c r="E79" s="23"/>
+      <c r="E79" s="18"/>
     </row>
     <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="n">
         <v>4.2</v>
       </c>
-      <c r="B80" s="23" t="n">
+      <c r="B80" s="18" t="n">
         <v>2.08</v>
       </c>
       <c r="C80" s="6" t="n">
@@ -3885,7 +6187,7 @@
       <c r="A81" s="7" t="n">
         <v>8.32</v>
       </c>
-      <c r="B81" s="22" t="n">
+      <c r="B81" s="19" t="n">
         <v>4.16</v>
       </c>
       <c r="C81" s="8" t="n">
@@ -3894,15 +6196,15 @@
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3915,26 +6217,26 @@
     </row>
     <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B87" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C87" s="21" t="s">
+      <c r="B87" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D87" s="25" t="s">
-        <v>19</v>
+      <c r="C87" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B88" s="23" t="n">
+      <c r="B88" s="18" t="n">
         <v>4.2</v>
       </c>
-      <c r="C88" s="23" t="n">
+      <c r="C88" s="18" t="n">
         <v>2.08</v>
       </c>
       <c r="D88" s="6" t="n">
@@ -3945,10 +6247,10 @@
       <c r="A89" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B89" s="23" t="n">
+      <c r="B89" s="18" t="n">
         <v>4.16</v>
       </c>
-      <c r="C89" s="23" t="n">
+      <c r="C89" s="18" t="n">
         <v>2.1</v>
       </c>
       <c r="D89" s="6" t="n">
@@ -3959,10 +6261,10 @@
       <c r="A90" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="B90" s="22" t="n">
+      <c r="B90" s="19" t="n">
         <v>4.28</v>
       </c>
-      <c r="C90" s="22" t="n">
+      <c r="C90" s="19" t="n">
         <v>1.68</v>
       </c>
       <c r="D90" s="8" t="n">
@@ -3971,37 +6273,37 @@
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B94" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C94" s="21" t="s">
+      <c r="B94" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D94" s="21" t="s">
-        <v>13</v>
-      </c>
       <c r="E94" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B95" s="22" t="n">
+      <c r="B95" s="19" t="n">
         <v>4.24</v>
       </c>
-      <c r="C95" s="22" t="n">
+      <c r="C95" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="D95" s="22" t="n">
+      <c r="D95" s="19" t="n">
         <v>2.08</v>
       </c>
       <c r="E95" s="8" t="n">
@@ -4019,4 +6321,642 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B98"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.29218106995885"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <f aca="false">5/3*A6-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <f aca="false">5/3*A7-10</f>
+        <v>-8.33333333333333</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <f aca="false">5/3*A8-10</f>
+        <v>-6.66666666666667</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <f aca="false">5/3*A9-10</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <f aca="false">5/3*A10-10</f>
+        <v>-3.33333333333333</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <f aca="false">5/3*A11-10</f>
+        <v>-1.66666666666667</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <f aca="false">5/3*A12-10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <f aca="false">5/3*A13-10</f>
+        <v>1.66666666666667</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <f aca="false">5/3*A14-10</f>
+        <v>3.33333333333333</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <f aca="false">5/3*A15-10</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <f aca="false">5/3*A16-10</f>
+        <v>6.66666666666667</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <f aca="false">5/3*A17-10</f>
+        <v>8.33333333333334</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <f aca="false">5/3*A18-10</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>-10</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>-9</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>-8</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>-6</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>-4</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>-3</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>-3</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
+        <v>-4</v>
+      </c>
+      <c r="B77" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
+        <v>-3</v>
+      </c>
+      <c r="B78" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="B79" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="B80" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B81" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B82" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B83" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B84" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B85" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="n">
+        <v>-4</v>
+      </c>
+      <c r="B90" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="n">
+        <v>-3</v>
+      </c>
+      <c r="B91" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="B92" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="B93" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B94" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B95" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B96" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B97" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B98" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>